--- a/template_user.xlsx
+++ b/template_user.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bahru\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Udin\SMP 1\web\pengumuman_kelulusan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFB0DF47-F838-445B-B17C-42CA1F3B9DBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E54424-7DD5-414A-9C79-97C52E76B1ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{895E9BC1-D2B6-4A19-9909-F2519C123557}"/>
+    <workbookView xWindow="9870" yWindow="2025" windowWidth="9210" windowHeight="6135" xr2:uid="{895E9BC1-D2B6-4A19-9909-F2519C123557}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -409,15 +409,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD4C16C-0EDC-4761-ADDD-991156D38F78}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,6 +444,35 @@
       </c>
       <c r="I1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
